--- a/data/trans_orig/P1415-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD225B2-F01D-464E-BA54-D9853815AC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C16DE9-D6BE-47C8-80DF-F081B1AE6314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E974FE05-4D73-408C-9101-FB5BA2C8E724}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5061D4F8-5B8B-434A-BD8B-71582C7C0C59}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="235">
   <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -94,622 +94,601 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>6,92%</t>
+    <t>4,84%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>98,39%</t>
-  </si>
-  <si>
     <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -1175,7 +1154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809EF071-0650-43EF-93EF-FF435190359D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3378CBD7-88C1-4F81-A0FF-828CE0C41867}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1798,7 +1777,7 @@
         <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,13 +1792,13 @@
         <v>1001081</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>931</v>
@@ -1828,13 +1807,13 @@
         <v>1021523</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>1852</v>
@@ -1843,13 +1822,13 @@
         <v>2022604</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,7 +1884,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1923,37 +1902,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,13 +1947,13 @@
         <v>9916</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -1983,13 +1962,13 @@
         <v>9992</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -1998,13 +1977,13 @@
         <v>19908</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,13 +1998,13 @@
         <v>747707</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>695</v>
@@ -2034,13 +2013,13 @@
         <v>767182</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>1376</v>
@@ -2049,13 +2028,13 @@
         <v>1514889</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,7 +2090,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2129,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2144,7 +2123,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2174,13 +2153,13 @@
         <v>14097</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2189,13 +2168,13 @@
         <v>9428</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -2204,13 +2183,13 @@
         <v>23525</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2204,13 @@
         <v>933642</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>995</v>
@@ -2240,13 +2219,13 @@
         <v>1042473</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>1893</v>
@@ -2255,13 +2234,13 @@
         <v>1976115</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2350,7 +2329,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2365,7 +2344,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,10 +2362,10 @@
         <v>60</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -2395,13 +2374,13 @@
         <v>37129</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -2410,13 +2389,13 @@
         <v>94099</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2410,13 @@
         <v>3369809</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>3261</v>
@@ -2446,28 +2425,28 @@
         <v>3517969</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M26" s="7">
         <v>6420</v>
       </c>
       <c r="N26" s="7">
-        <v>6887778</v>
+        <v>6887779</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,7 +2488,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>35</v>
@@ -2523,7 +2502,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2544,7 +2523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A509BF9C-4618-4A84-B7F0-02681C0ED0D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F7F873-3CDD-4A9D-9E62-E2A955E9C90B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2561,7 +2540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2674,7 +2653,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2704,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2698,13 @@
         <v>1061</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2734,13 +2713,13 @@
         <v>894</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2749,13 +2728,13 @@
         <v>1955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,10 +2749,10 @@
         <v>115485</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -2785,10 +2764,10 @@
         <v>112466</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
@@ -2800,10 +2779,10 @@
         <v>227951</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -2880,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2910,7 +2889,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2904,13 @@
         <v>920</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2940,13 +2919,13 @@
         <v>6444</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -2955,13 +2934,13 @@
         <v>7364</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,10 +2955,10 @@
         <v>557334</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
@@ -2991,13 +2970,13 @@
         <v>553035</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>1083</v>
@@ -3006,13 +2985,13 @@
         <v>1110369</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3110,13 @@
         <v>9238</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3146,13 +3125,13 @@
         <v>20347</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3161,13 +3140,13 @@
         <v>29585</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3161,13 @@
         <v>1013193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>957</v>
@@ -3197,13 +3176,13 @@
         <v>1022566</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>1899</v>
@@ -3212,13 +3191,13 @@
         <v>2035759</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3253,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3292,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3307,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3322,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3316,13 @@
         <v>4456</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -3352,13 +3331,13 @@
         <v>18662</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -3367,13 +3346,13 @@
         <v>23118</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3367,13 @@
         <v>755096</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H18" s="7">
         <v>720</v>
@@ -3403,13 +3382,13 @@
         <v>766349</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="M18" s="7">
         <v>1411</v>
@@ -3418,13 +3397,13 @@
         <v>1521445</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,7 +3459,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3498,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3543,13 +3522,13 @@
         <v>19786</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -3561,10 +3540,10 @@
         <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -3573,13 +3552,13 @@
         <v>29882</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3573,13 @@
         <v>917781</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>949</v>
@@ -3612,10 +3591,10 @@
         <v>29</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
         <v>1862</v>
@@ -3624,13 +3603,13 @@
         <v>1951464</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3719,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3734,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3728,13 @@
         <v>35461</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -3764,13 +3743,13 @@
         <v>56443</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -3779,13 +3758,13 @@
         <v>91903</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3779,13 @@
         <v>3358889</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="H26" s="7">
         <v>3285</v>
@@ -3815,13 +3794,13 @@
         <v>3488099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="M26" s="7">
         <v>6481</v>
@@ -3830,13 +3809,13 @@
         <v>6846989</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,7 +3871,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3913,7 +3892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0BBB18-3795-4FD4-A961-56735A1910A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1729945B-E36B-4369-AB54-6E4896155A0E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3930,7 +3909,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4040,7 +4019,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>35</v>
@@ -4055,7 +4034,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -4070,7 +4049,7 @@
         <v>31</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>35</v>
@@ -4094,7 +4073,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4109,7 +4088,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4124,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,7 +4124,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4160,7 +4139,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4175,7 +4154,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,7 +4225,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>35</v>
@@ -4261,7 +4240,7 @@
         <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>35</v>
@@ -4276,7 +4255,7 @@
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>35</v>
@@ -4315,7 +4294,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4330,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,7 +4345,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4381,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4431,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>35</v>
@@ -4467,7 +4446,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>35</v>
@@ -4482,7 +4461,7 @@
         <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>35</v>
@@ -4521,7 +4500,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4536,7 +4515,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,7 +4551,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4587,7 +4566,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,7 +4622,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4658,7 +4637,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>35</v>
@@ -4673,7 +4652,7 @@
         <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>35</v>
@@ -4688,7 +4667,7 @@
         <v>31</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>35</v>
@@ -4712,7 +4691,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4727,7 +4706,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4742,7 +4721,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4778,7 +4757,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4793,7 +4772,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,7 +4828,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4864,7 +4843,7 @@
         <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
@@ -4879,7 +4858,7 @@
         <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>35</v>
@@ -4894,7 +4873,7 @@
         <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>35</v>
@@ -4918,7 +4897,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4933,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4948,7 +4927,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,7 +4948,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4984,7 +4963,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4999,7 +4978,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,7 +5049,7 @@
         <v>31</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>35</v>
@@ -5085,7 +5064,7 @@
         <v>31</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>35</v>
@@ -5100,7 +5079,7 @@
         <v>31</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>35</v>
@@ -5124,7 +5103,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5139,7 +5118,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5154,7 +5133,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,7 +5154,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5190,7 +5169,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5205,7 +5184,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,7 +5240,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1415-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C16DE9-D6BE-47C8-80DF-F081B1AE6314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09A5E9F1-D9CD-4405-A059-DDA9254AF08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5061D4F8-5B8B-434A-BD8B-71582C7C0C59}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB25A196-AFF6-417B-8A14-EE2AD4D3B021}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="244">
   <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No procede</t>
@@ -94,16 +94,16 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,84%</t>
+    <t>4,88%</t>
   </si>
   <si>
     <t>1,65%</t>
@@ -112,7 +112,7 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>4,11%</t>
+    <t>4,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -121,16 +121,16 @@
     <t>97,69%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>95,16%</t>
+    <t>95,12%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -139,7 +139,7 @@
     <t>98,35%</t>
   </si>
   <si>
-    <t>95,89%</t>
+    <t>95,82%</t>
   </si>
   <si>
     <t>99,58%</t>
@@ -148,7 +148,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -160,559 +160,586 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -1154,7 +1181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3378CBD7-88C1-4F81-A0FF-828CE0C41867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFC4DC3-F446-44EA-A828-14170D921E4C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1777,7 +1804,7 @@
         <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,13 +1819,13 @@
         <v>1001081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>931</v>
@@ -1807,13 +1834,13 @@
         <v>1021523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>1852</v>
@@ -1822,13 +1849,13 @@
         <v>2022604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,7 +1911,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1902,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1917,7 +1944,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1932,7 +1959,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,13 +1974,13 @@
         <v>9916</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -1962,13 +1989,13 @@
         <v>9992</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -1977,13 +2004,13 @@
         <v>19908</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +2025,13 @@
         <v>747707</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>695</v>
@@ -2013,13 +2040,13 @@
         <v>767182</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>1376</v>
@@ -2028,13 +2055,13 @@
         <v>1514889</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,7 +2117,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2108,7 +2135,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2123,7 +2150,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2153,13 +2180,13 @@
         <v>14097</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2168,13 +2195,13 @@
         <v>9428</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -2183,13 +2210,13 @@
         <v>23525</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2231,13 @@
         <v>933642</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>995</v>
@@ -2219,13 +2246,13 @@
         <v>1042473</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="M22" s="7">
         <v>1893</v>
@@ -2234,13 +2261,13 @@
         <v>1976115</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2329,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2344,7 +2371,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,10 +2389,10 @@
         <v>60</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -2374,13 +2401,13 @@
         <v>37129</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -2389,13 +2416,13 @@
         <v>94099</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2437,13 @@
         <v>3369809</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>3261</v>
@@ -2425,28 +2452,28 @@
         <v>3517969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="M26" s="7">
         <v>6420</v>
       </c>
       <c r="N26" s="7">
-        <v>6887779</v>
+        <v>6887778</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,7 +2515,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>35</v>
@@ -2502,7 +2529,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2523,7 +2550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F7F873-3CDD-4A9D-9E62-E2A955E9C90B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69925349-983C-4787-A8BC-820325B3FC6B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2540,7 +2567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2653,7 +2680,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2683,7 +2710,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2725,13 @@
         <v>1061</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2713,13 +2740,13 @@
         <v>894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2728,13 +2755,13 @@
         <v>1955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,10 +2776,10 @@
         <v>115485</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -2764,10 +2791,10 @@
         <v>112466</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
@@ -2779,10 +2806,10 @@
         <v>227951</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -2859,7 +2886,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2889,7 +2916,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2931,13 @@
         <v>920</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -2919,13 +2946,13 @@
         <v>6444</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -2934,13 +2961,13 @@
         <v>7364</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,10 +2982,10 @@
         <v>557334</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
@@ -2970,13 +2997,13 @@
         <v>553035</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>1083</v>
@@ -2985,13 +3012,13 @@
         <v>1110369</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3137,13 @@
         <v>9238</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3125,13 +3152,13 @@
         <v>20347</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3140,13 +3167,13 @@
         <v>29585</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3188,13 @@
         <v>1013193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>957</v>
@@ -3176,13 +3203,13 @@
         <v>1022566</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>1899</v>
@@ -3191,13 +3218,13 @@
         <v>2035759</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3280,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3271,7 +3298,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3316,13 +3343,13 @@
         <v>4456</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -3331,13 +3358,13 @@
         <v>18662</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -3346,10 +3373,10 @@
         <v>23118</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>185</v>
@@ -3367,13 +3394,13 @@
         <v>755096</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H18" s="7">
         <v>720</v>
@@ -3382,13 +3409,13 @@
         <v>766349</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M18" s="7">
         <v>1411</v>
@@ -3397,13 +3424,13 @@
         <v>1521445</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,7 +3486,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3477,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3525,10 +3552,10 @@
         <v>193</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -3540,10 +3567,10 @@
         <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -3552,13 +3579,13 @@
         <v>29882</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3600,13 @@
         <v>917781</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="H22" s="7">
         <v>949</v>
@@ -3591,10 +3618,10 @@
         <v>29</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M22" s="7">
         <v>1862</v>
@@ -3603,13 +3630,13 @@
         <v>1951464</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3698,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3713,7 +3740,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3755,13 @@
         <v>35461</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -3743,13 +3770,13 @@
         <v>56443</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -3758,13 +3785,13 @@
         <v>91903</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3806,13 @@
         <v>3358889</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>3285</v>
@@ -3794,13 +3821,13 @@
         <v>3488099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="M26" s="7">
         <v>6481</v>
@@ -3809,13 +3836,13 @@
         <v>6846989</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,7 +3898,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +3919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1729945B-E36B-4369-AB54-6E4896155A0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0295232D-84D5-43A1-90EB-0C0113B4D32D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3909,7 +3936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4019,7 +4046,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>35</v>
@@ -4034,7 +4061,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -4049,7 +4076,7 @@
         <v>31</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>35</v>
@@ -4073,7 +4100,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4088,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4103,7 +4130,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,7 +4151,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4139,7 +4166,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4154,7 +4181,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,7 +4252,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>35</v>
@@ -4240,7 +4267,7 @@
         <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>35</v>
@@ -4255,7 +4282,7 @@
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>35</v>
@@ -4279,7 +4306,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4294,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4309,7 +4336,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,7 +4357,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4345,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4360,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,7 +4458,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>35</v>
@@ -4446,7 +4473,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>35</v>
@@ -4461,7 +4488,7 @@
         <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>35</v>
@@ -4515,7 +4542,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,7 +4593,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,7 +4649,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4637,7 +4664,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>35</v>
@@ -4652,7 +4679,7 @@
         <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>35</v>
@@ -4667,7 +4694,7 @@
         <v>31</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>35</v>
@@ -4691,7 +4718,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4706,7 +4733,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4721,7 +4748,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,7 +4769,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4757,7 +4784,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4772,7 +4799,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4855,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4843,7 +4870,7 @@
         <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
@@ -4858,7 +4885,7 @@
         <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>35</v>
@@ -4873,7 +4900,7 @@
         <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>35</v>
@@ -4897,7 +4924,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4912,7 +4939,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4927,7 +4954,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,7 +4975,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4963,7 +4990,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4978,7 +5005,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,7 +5076,7 @@
         <v>31</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>35</v>
@@ -5064,7 +5091,7 @@
         <v>31</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>35</v>
@@ -5073,13 +5100,13 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>35</v>
@@ -5103,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5118,7 +5145,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5133,7 +5160,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,7 +5181,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5169,7 +5196,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5184,7 +5211,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,7 +5253,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>35</v>
@@ -5240,7 +5267,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1415-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D6B5233-DCEA-455B-96A6-55C665DBAE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{909A3158-0061-4E48-9CD3-A058CCDE216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB6DBBDB-B5E2-4270-A6FD-E7D9B3DF4E9E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A6AAC6D0-438E-4BC7-A3F4-58F60FD5A8E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="176">
   <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -66,571 +66,502 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,31%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>6,03%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
   </si>
   <si>
     <t>98,38%</t>
@@ -1045,8 +976,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17AACA3-FA1E-43B5-930E-3FABD0FE2009}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E7E04B-FD05-4ABD-9204-08407D6BB769}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1163,10 +1094,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>2673</v>
+        <v>16091</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1178,10 +1109,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>1085</v>
+        <v>10259</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1193,10 +1124,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>3758</v>
+        <v>26350</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1214,10 +1145,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>119</v>
+        <v>659</v>
       </c>
       <c r="D5" s="7">
-        <v>113092</v>
+        <v>687378</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1229,10 +1160,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>640</v>
       </c>
       <c r="I5" s="7">
-        <v>110820</v>
+        <v>686791</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1244,10 +1175,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>217</v>
+        <v>1299</v>
       </c>
       <c r="N5" s="7">
-        <v>223912</v>
+        <v>1374169</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1265,10 +1196,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1280,10 +1211,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1295,10 +1226,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1318,10 +1249,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>13418</v>
+        <v>16866</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1333,10 +1264,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>9174</v>
+        <v>7450</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1348,10 +1279,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>22592</v>
+        <v>24316</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1369,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>540</v>
+        <v>921</v>
       </c>
       <c r="D8" s="7">
-        <v>574286</v>
+        <v>1001081</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1384,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>542</v>
+        <v>931</v>
       </c>
       <c r="I8" s="7">
-        <v>575971</v>
+        <v>1021523</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1399,10 +1330,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1082</v>
+        <v>1852</v>
       </c>
       <c r="N8" s="7">
-        <v>1150257</v>
+        <v>2022605</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1420,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1435,10 +1366,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1450,10 +1381,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1473,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>16866</v>
+        <v>9916</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1488,34 +1419,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>7450</v>
+        <v>9992</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7">
+        <v>19908</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>22</v>
-      </c>
-      <c r="N10" s="7">
-        <v>24316</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,49 +1455,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>921</v>
+        <v>681</v>
       </c>
       <c r="D11" s="7">
-        <v>1001081</v>
+        <v>747707</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>695</v>
+      </c>
+      <c r="I11" s="7">
+        <v>767182</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1376</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1514889</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>931</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1021523</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1852</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2022604</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,10 +1506,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1590,10 +1521,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1605,10 +1536,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1622,55 +1553,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>14097</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
-        <v>9916</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>9428</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>20</v>
+      </c>
+      <c r="N13" s="7">
+        <v>23525</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9992</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="7">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7">
-        <v>19908</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,49 +1610,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>681</v>
+        <v>898</v>
       </c>
       <c r="D14" s="7">
-        <v>747707</v>
+        <v>933642</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="7">
+        <v>995</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1042473</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1893</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1976115</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H14" s="7">
-        <v>695</v>
-      </c>
-      <c r="I14" s="7">
-        <v>767182</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1376</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1514889</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,10 +1661,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1745,10 +1676,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1760,10 +1691,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1777,55 +1708,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>14097</v>
+        <v>56970</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>9428</v>
+        <v>37129</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="N16" s="7">
-        <v>23525</v>
+        <v>94099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,49 +1765,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>898</v>
+        <v>3159</v>
       </c>
       <c r="D17" s="7">
-        <v>933642</v>
+        <v>3369809</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>995</v>
+        <v>3261</v>
       </c>
       <c r="I17" s="7">
-        <v>1042473</v>
+        <v>3517969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7">
-        <v>1893</v>
+        <v>6420</v>
       </c>
       <c r="N17" s="7">
-        <v>1976115</v>
+        <v>6887778</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,10 +1816,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1900,10 +1831,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1915,10 +1846,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6981877</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1931,171 +1862,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>50</v>
-      </c>
-      <c r="D19" s="7">
-        <v>56970</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="7">
-        <v>35</v>
-      </c>
-      <c r="I19" s="7">
-        <v>37129</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>85</v>
-      </c>
-      <c r="N19" s="7">
-        <v>94099</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3159</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3369809</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3261</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3517969</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6420</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6887778</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2108,8 +1883,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC12637C-2854-4E00-A436-B12FAF99D9BD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6302E89B-59ED-408D-83B8-A6D9A349DC3C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2125,7 +1900,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2226,49 +2001,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1061</v>
+        <v>1981</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>894</v>
+        <v>7338</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>1955</v>
+        <v>9319</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,49 +2052,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>650</v>
+      </c>
+      <c r="D5" s="7">
+        <v>672819</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="7">
+        <v>659</v>
+      </c>
+      <c r="I5" s="7">
+        <v>665501</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="7">
-        <v>115485</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="M5" s="7">
+        <v>1309</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1338320</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="7">
-        <v>112466</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>226</v>
-      </c>
-      <c r="N5" s="7">
-        <v>227951</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,10 +2103,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2343,10 +2118,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2358,10 +2133,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2381,49 +2156,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>920</v>
+        <v>9238</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>6444</v>
+        <v>20347</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N7" s="7">
-        <v>7364</v>
+        <v>29585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,49 +2207,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>538</v>
+        <v>942</v>
       </c>
       <c r="D8" s="7">
-        <v>557334</v>
+        <v>1013193</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
-        <v>545</v>
+        <v>957</v>
       </c>
       <c r="I8" s="7">
-        <v>553035</v>
+        <v>1022566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
-        <v>1083</v>
+        <v>1899</v>
       </c>
       <c r="N8" s="7">
-        <v>1110369</v>
+        <v>2035759</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,10 +2258,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2498,10 +2273,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2513,10 +2288,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2536,49 +2311,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>9238</v>
+        <v>4456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="7">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7">
+        <v>18662</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>20347</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>29585</v>
+        <v>23118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,49 +2362,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>942</v>
+        <v>691</v>
       </c>
       <c r="D11" s="7">
-        <v>1013193</v>
+        <v>755096</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="7">
+        <v>720</v>
+      </c>
+      <c r="I11" s="7">
+        <v>766349</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H11" s="7">
-        <v>957</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1022566</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="M11" s="7">
-        <v>1899</v>
+        <v>1411</v>
       </c>
       <c r="N11" s="7">
-        <v>2035759</v>
+        <v>1521445</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,10 +2413,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2653,10 +2428,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2668,10 +2443,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2685,55 +2460,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>4456</v>
+        <v>19786</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>18662</v>
+        <v>10096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="M13" s="7">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>23118</v>
+        <v>29882</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,49 +2517,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>691</v>
+        <v>913</v>
       </c>
       <c r="D14" s="7">
-        <v>755096</v>
+        <v>917781</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
-        <v>720</v>
+        <v>949</v>
       </c>
       <c r="I14" s="7">
-        <v>766349</v>
+        <v>1033683</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
-        <v>1411</v>
+        <v>1862</v>
       </c>
       <c r="N14" s="7">
-        <v>1521445</v>
+        <v>1951464</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,10 +2568,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2808,10 +2583,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2823,10 +2598,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2840,55 +2615,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
-        <v>19786</v>
+        <v>35461</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="I16" s="7">
-        <v>10096</v>
+        <v>56443</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N16" s="7">
-        <v>29882</v>
+        <v>91903</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,49 +2672,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>913</v>
+        <v>3196</v>
       </c>
       <c r="D17" s="7">
-        <v>917781</v>
+        <v>3358889</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
-        <v>949</v>
+        <v>3285</v>
       </c>
       <c r="I17" s="7">
-        <v>1033683</v>
+        <v>3488099</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
-        <v>1862</v>
+        <v>6481</v>
       </c>
       <c r="N17" s="7">
-        <v>1951464</v>
+        <v>6846989</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,10 +2723,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2963,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2978,10 +2753,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2994,171 +2769,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>35</v>
-      </c>
-      <c r="D19" s="7">
-        <v>35461</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="7">
-        <v>53</v>
-      </c>
-      <c r="I19" s="7">
-        <v>56443</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M19" s="7">
-        <v>88</v>
-      </c>
-      <c r="N19" s="7">
-        <v>91903</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3196</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3358889</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3285</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3488099</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6481</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6846989</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
